--- a/app/postgres_data/daily/real_generation/25_01_2023_real_gen.xlsx
+++ b/app/postgres_data/daily/real_generation/25_01_2023_real_gen.xlsx
@@ -86,7 +86,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Stand: 25.01.2023, 10:03</t>
+          <t>Stand: 25.01.2023, 10:22</t>
         </is>
       </c>
     </row>
@@ -53015,63 +53015,41 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="D1007" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E1007" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D1007" s="1" t="n">
+        <v>1259.75</v>
+      </c>
+      <c r="E1007" s="1" t="n">
+        <v>407.0</v>
       </c>
       <c r="F1007" s="1" t="n">
         <v>646.0</v>
       </c>
-      <c r="G1007" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H1007" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I1007" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J1007" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L1007" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M1007" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N1007" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O1007" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="G1007" s="1" t="n">
+        <v>430.0</v>
+      </c>
+      <c r="H1007" s="1" t="n">
+        <v>94.75</v>
+      </c>
+      <c r="I1007" s="1" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="J1007" s="1" t="n">
+        <v>533.75</v>
+      </c>
+      <c r="K1007" s="1" t="n">
+        <v>4000.5</v>
+      </c>
+      <c r="L1007" s="1" t="n">
+        <v>3802.5</v>
+      </c>
+      <c r="M1007" s="1" t="n">
+        <v>3523.0</v>
+      </c>
+      <c r="N1007" s="1" t="n">
+        <v>1397.0</v>
+      </c>
+      <c r="O1007" s="1" t="n">
+        <v>304.75</v>
       </c>
     </row>
     <row r="1008">
@@ -53118,30 +53096,22 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J1008" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L1008" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="J1008" s="1" t="n">
+        <v>533.75</v>
+      </c>
+      <c r="K1008" s="1" t="n">
+        <v>3982.75</v>
+      </c>
+      <c r="L1008" s="1" t="n">
+        <v>3795.75</v>
       </c>
       <c r="M1008" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="N1008" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N1008" s="1" t="n">
+        <v>1364.25</v>
       </c>
       <c r="O1008" t="inlineStr">
         <is>
@@ -53175,10 +53145,8 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F1009" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="F1009" s="1" t="n">
+        <v>652.5</v>
       </c>
       <c r="G1009" t="inlineStr">
         <is>
